--- a/Tracking_and_Info/Resource_And_Tracker.xlsx
+++ b/Tracking_and_Info/Resource_And_Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sirigirs\Desktop\DevOps_Tech\Tracking_and_Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEB1FE2-FCB1-4D62-952E-460C604237D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6019FFCE-990E-402E-BFA0-999FD757B2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Check_Points" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="166">
   <si>
     <t>Godaddy</t>
   </si>
@@ -519,6 +519,12 @@
   </si>
   <si>
     <t>sleep</t>
+  </si>
+  <si>
+    <t>Benefits Online | Sell Shares</t>
+  </si>
+  <si>
+    <t>https://www.benefits.ml.com/Core/Frame/ContentHostV2?MenuID=11066</t>
   </si>
 </sst>
 </file>
@@ -605,7 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -620,6 +626,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -903,18 +910,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -930,7 +937,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -946,7 +953,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -962,7 +969,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -971,7 +978,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -980,7 +987,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -998,7 +1005,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1016,7 +1023,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1025,7 +1032,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1034,7 +1041,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1052,7 +1059,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -1070,16 +1077,20 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1095,7 +1106,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>23</v>
@@ -1107,7 +1118,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1118,7 +1129,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1134,7 +1145,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>20</v>
@@ -1148,7 +1159,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1157,7 +1168,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1171,7 +1182,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1185,7 +1196,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1199,7 +1210,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,7 +1224,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1222,13 +1233,13 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1236,7 +1247,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1247,7 +1258,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1258,7 +1269,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -1266,7 +1277,7 @@
         <v>45535</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>155</v>
       </c>
@@ -1282,6 +1293,7 @@
     <hyperlink ref="B3" r:id="rId4" xr:uid="{4D40ADFA-7C53-4DB1-859C-4952F87244B6}"/>
     <hyperlink ref="B20" r:id="rId5" xr:uid="{B56B4FAF-E5CC-440B-B93E-252BB5CDDD76}"/>
     <hyperlink ref="B19" r:id="rId6" xr:uid="{7DD9FDD5-BD9D-4856-80F6-ACB7DC004BB2}"/>
+    <hyperlink ref="B12" r:id="rId7" display="https://www.benefits.ml.com/Core/Frame/ContentHostV2?MenuID=11066" xr:uid="{828AF2D8-88C9-4A43-A55A-6A8C1F5CD1D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1295,17 +1307,17 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>98</v>
       </c>
@@ -1325,7 +1337,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -1345,7 +1357,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -1362,7 +1374,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -1376,7 +1388,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -1387,7 +1399,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1398,7 +1410,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1409,7 +1421,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -1420,7 +1432,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>67</v>
       </c>
@@ -1428,7 +1440,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -1439,7 +1451,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>62</v>
       </c>
@@ -1447,7 +1459,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>60</v>
       </c>
@@ -1455,7 +1467,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>58</v>
       </c>
@@ -1463,7 +1475,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>56</v>
       </c>
@@ -1471,52 +1483,52 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -1530,18 +1542,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F089DC-93DA-447A-9AE2-EE9027BB4430}">
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>153</v>
       </c>
@@ -1564,15 +1576,15 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>45521</v>
+        <v>45526</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
         <v>149</v>
@@ -1590,15 +1602,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>45522</v>
+        <v>45527</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
         <v>145</v>
@@ -1616,15 +1628,15 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>45523</v>
+        <v>45528</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
         <v>142</v>
@@ -1642,15 +1654,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>45524</v>
+        <v>45529</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
         <v>138</v>
@@ -1665,15 +1677,15 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>45525</v>
+        <v>45530</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
         <v>134</v>
@@ -1691,15 +1703,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>45526</v>
+        <v>45531</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
         <v>130</v>
@@ -1711,15 +1723,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <v>45527</v>
+        <v>45532</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
         <v>128</v>
@@ -1731,15 +1743,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="5">
-        <v>45528</v>
+        <v>45533</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
         <v>126</v>
@@ -1748,15 +1760,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>45529</v>
+        <v>45534</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
         <v>125</v>
@@ -1765,15 +1777,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <v>45530</v>
+        <v>45535</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
         <v>124</v>
@@ -1782,189 +1794,159 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="5">
-        <v>45531</v>
+        <v>45536</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="5">
-        <v>45532</v>
+        <v>45537</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="5">
-        <v>45533</v>
+        <v>45538</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="5">
-        <v>45534</v>
+        <v>45539</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="5">
-        <v>45535</v>
+        <v>45540</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="5">
-        <v>45536</v>
+        <v>45541</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="5">
-        <v>45537</v>
+        <v>45542</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="5">
-        <v>45538</v>
+        <v>45543</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
-        <v>45539</v>
-      </c>
-      <c r="C20" t="s">
-        <v>108</v>
-      </c>
       <c r="D20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
-        <v>45540</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
-      </c>
       <c r="D21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
-        <v>45541</v>
-      </c>
-      <c r="C22" t="s">
-        <v>104</v>
-      </c>
       <c r="D22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
-        <v>45542</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
-      </c>
       <c r="D23" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
-        <v>45543</v>
-      </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
       <c r="D24" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1972,7 +1954,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1980,7 +1962,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1988,7 +1970,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1996,7 +1978,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
